--- a/ME7120_FEA/MatLab_FE_Code/Brick_element_Results_data/NX_Beam_Models/Tappered_Pyr/Pyr_Dims.xlsx
+++ b/ME7120_FEA/MatLab_FE_Code/Brick_element_Results_data/NX_Beam_Models/Tappered_Pyr/Pyr_Dims.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ado\Documents\GitHub\WSU_Classes\ME7120_FEA\MatLab_FE_Code\Brick_element_Results_data\NX_Beam_Models\Tappered_Pyr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WSUadm\Documents\GitHub\WSU_Classes\ME7120_FEA\MatLab_FE_Code\Brick_element_Results_data\NX_Beam_Models\Tappered_Pyr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Dia 1</t>
   </si>
@@ -81,14 +81,26 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>WFEM Tip Disp</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -133,13 +145,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -148,6 +160,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +768,35 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.27660000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
